--- a/data/trans_orig/P44AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588DF9D1-143B-4091-8475-E616D3581106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0DBEDC-B281-41AA-B2FD-C05DF6E24A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3D4F1C2-0793-4F2E-9076-01DFAC386C06}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B6F9432-75EC-44E3-A9A8-C16B4BA28FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="413">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
@@ -106,28 +106,28 @@
     <t>43,93%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>Sangre oculta en heces</t>
@@ -139,7 +139,7 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>17,29%</t>
+    <t>18,34%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -148,1138 +148,1135 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>8,18%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>Análisis de sangre</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>Análisis de sangre</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9950E458-157F-4DB3-AE3F-BE24B58661B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC336D-B82C-4437-ADB5-9D0580A37889}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2090,10 +2087,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -2102,13 +2099,13 @@
         <v>16054</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2120,13 @@
         <v>16026</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2138,13 +2135,13 @@
         <v>13447</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -2153,13 +2150,13 @@
         <v>29473</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2171,13 @@
         <v>6322</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2189,13 +2186,13 @@
         <v>933</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2204,13 +2201,13 @@
         <v>7255</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2222,13 @@
         <v>16885</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2240,13 +2237,13 @@
         <v>10521</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -2255,13 +2252,13 @@
         <v>27406</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2314,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2332,10 +2329,10 @@
         <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2344,13 +2341,13 @@
         <v>2769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2359,13 +2356,13 @@
         <v>2769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2377,13 @@
         <v>8323</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -2395,13 +2392,13 @@
         <v>4161</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -2410,13 +2407,13 @@
         <v>12484</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2428,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2446,13 +2443,13 @@
         <v>977</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2461,13 +2458,13 @@
         <v>1976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2479,13 @@
         <v>5240</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2497,13 +2494,13 @@
         <v>4583</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2512,13 +2509,13 @@
         <v>9823</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2583,13 @@
         <v>13724</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2601,13 +2598,13 @@
         <v>22822</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -2616,13 +2613,13 @@
         <v>36546</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2634,13 @@
         <v>44140</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -2652,13 +2649,13 @@
         <v>46381</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2667,13 +2664,13 @@
         <v>90521</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2685,13 @@
         <v>10432</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2850,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1605C17-3B1D-42F6-AFD2-C841A8D13791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793B44E-276A-40D6-B544-6DEA83A93F2F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3145,10 +3142,10 @@
         <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3157,13 +3154,13 @@
         <v>39785</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3228,13 @@
         <v>12858</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3246,13 +3243,13 @@
         <v>9390</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3261,13 +3258,13 @@
         <v>22248</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3279,13 @@
         <v>31331</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3297,13 +3294,13 @@
         <v>15905</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3312,13 +3309,13 @@
         <v>47235</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3330,13 @@
         <v>4244</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3348,13 +3345,13 @@
         <v>1026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3363,13 +3360,13 @@
         <v>5270</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3381,13 @@
         <v>29647</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -3399,13 +3396,13 @@
         <v>10122</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -3414,13 +3411,13 @@
         <v>39769</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,7 +3473,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3488,13 +3485,13 @@
         <v>8896</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3503,13 +3500,13 @@
         <v>4982</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3518,13 +3515,13 @@
         <v>13878</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3536,13 @@
         <v>5960</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -3554,13 +3551,13 @@
         <v>6177</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -3569,10 +3566,10 @@
         <v>12137</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>240</v>
@@ -3596,7 +3593,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3608,10 +3605,10 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3626,7 +3623,7 @@
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3638,13 @@
         <v>11984</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3656,13 +3653,13 @@
         <v>4984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3671,13 +3668,13 @@
         <v>16968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3742,13 @@
         <v>31434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3760,13 +3757,13 @@
         <v>23328</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -3811,13 +3808,13 @@
         <v>46698</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3826,13 +3823,13 @@
         <v>106658</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3844,13 @@
         <v>9107</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3862,13 +3859,13 @@
         <v>6390</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3877,13 +3874,13 @@
         <v>15497</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3895,13 @@
         <v>58240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -3913,10 +3910,10 @@
         <v>38283</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>283</v>
@@ -3934,7 +3931,7 @@
         <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +4006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24463F8E-9665-4B0E-A1BE-5C897D941D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19886008-2327-4243-89E2-871870FC5D29}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4026,7 +4023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,13 +4130,13 @@
         <v>1245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4148,13 +4145,13 @@
         <v>639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4163,13 +4160,13 @@
         <v>1885</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4181,13 @@
         <v>46978</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -4199,13 +4196,13 @@
         <v>51071</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4214,13 +4211,13 @@
         <v>98049</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +4390,10 @@
         <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4405,13 +4402,13 @@
         <v>455</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4420,13 +4417,13 @@
         <v>2785</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4438,7 @@
         <v>68414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>329</v>
@@ -4462,7 +4459,7 @@
         <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -4471,13 +4468,13 @@
         <v>123657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4489,13 @@
         <v>165703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -4507,13 +4504,13 @@
         <v>157631</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -4522,13 +4519,13 @@
         <v>323334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
         <v>97122</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>346</v>
@@ -4558,13 +4555,13 @@
         <v>29185</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -4573,13 +4570,13 @@
         <v>126308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4632,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4650,10 +4647,10 @@
         <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4665,10 +4662,10 @@
         <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4680,10 +4677,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4695,13 @@
         <v>44181</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -4713,13 +4710,13 @@
         <v>21659</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M15" s="7">
         <v>92</v>
@@ -4728,13 +4725,13 @@
         <v>65841</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4746,13 @@
         <v>71817</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -4764,13 +4761,13 @@
         <v>64851</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4779,13 +4776,13 @@
         <v>136668</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4797,13 @@
         <v>14236</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4815,13 +4812,13 @@
         <v>6017</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4830,13 +4827,13 @@
         <v>20253</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4901,13 @@
         <v>3575</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5003,7 +5000,7 @@
         <v>406</v>
       </c>
       <c r="D21" s="7">
-        <v>324266</v>
+        <v>324265</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>398</v>
@@ -5060,10 +5057,10 @@
         <v>407</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -5078,7 +5075,7 @@
         <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -5090,10 +5087,10 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,7 +5102,7 @@
         <v>707</v>
       </c>
       <c r="D23" s="7">
-        <v>614310</v>
+        <v>614309</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P44AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS1-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A0DBEDC-B281-41AA-B2FD-C05DF6E24A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0481C222-C99A-482B-8170-BAE4301AF2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B6F9432-75EC-44E3-A9A8-C16B4BA28FB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06A59233-1591-4BBD-95FA-2D1C60BB1498}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="415">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2012 (Tasa respuesta: 2,95%)</t>
   </si>
@@ -76,1201 +76,1207 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>Sangre oculta en heces</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>Análisis de sangre</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2016 (Tasa respuesta: 3,85%)</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>Sangre oculta en heces</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>Análisis de sangre</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>55,14%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2015 (Tasa respuesta: 3,85%)</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>13,98%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 1 en 2023 (Tasa respuesta: 18,38%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
   </si>
   <si>
     <t>12,13%</t>
@@ -1688,7 +1694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC336D-B82C-4437-ADB5-9D0580A37889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E08D6A-3417-4B34-A883-C4CF62BC1967}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2087,10 +2093,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -2099,13 +2105,13 @@
         <v>16054</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2126,13 @@
         <v>16026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2135,13 +2141,13 @@
         <v>13447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -2150,13 +2156,13 @@
         <v>29473</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2177,13 @@
         <v>6322</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2186,13 +2192,13 @@
         <v>933</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2201,13 +2207,13 @@
         <v>7255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2228,13 @@
         <v>16885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2237,13 +2243,13 @@
         <v>10521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -2252,13 +2258,13 @@
         <v>27406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2320,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2329,10 +2335,10 @@
         <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2341,13 +2347,13 @@
         <v>2769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2356,13 +2362,13 @@
         <v>2769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2383,13 @@
         <v>8323</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -2392,13 +2398,13 @@
         <v>4161</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -2407,13 +2413,13 @@
         <v>12484</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2434,13 @@
         <v>1000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2443,13 +2449,13 @@
         <v>977</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2458,13 +2464,13 @@
         <v>1976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2485,13 @@
         <v>5240</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2494,13 +2500,13 @@
         <v>4583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2509,13 +2515,13 @@
         <v>9823</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2589,13 @@
         <v>13724</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2598,13 +2604,13 @@
         <v>22822</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -2613,13 +2619,13 @@
         <v>36546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2640,13 @@
         <v>44140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -2649,13 +2655,13 @@
         <v>46381</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2664,13 +2670,13 @@
         <v>90521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2691,13 @@
         <v>10432</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2700,13 +2706,13 @@
         <v>2868</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -2715,13 +2721,13 @@
         <v>13299</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2742,13 @@
         <v>41070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2751,13 +2757,13 @@
         <v>33772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -2766,13 +2772,13 @@
         <v>74842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2834,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793B44E-276A-40D6-B544-6DEA83A93F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC320BB-3F49-42E0-95AA-AD1A7808559C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2870,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,13 +2977,13 @@
         <v>9680</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2986,13 +2992,13 @@
         <v>8956</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3001,13 +3007,13 @@
         <v>18636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3028,13 @@
         <v>22669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3037,13 +3043,13 @@
         <v>24616</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -3052,13 +3058,13 @@
         <v>47285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>2759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3088,13 +3094,13 @@
         <v>5365</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -3103,13 +3109,13 @@
         <v>8123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3130,13 @@
         <v>16608</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3139,10 +3145,10 @@
         <v>23177</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>185</v>
@@ -3160,7 +3166,7 @@
         <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3234,13 @@
         <v>12858</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3243,13 +3249,13 @@
         <v>9390</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -3258,13 +3264,13 @@
         <v>22248</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3285,13 @@
         <v>31331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3294,10 +3300,10 @@
         <v>15905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>202</v>
@@ -3312,10 +3318,10 @@
         <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3336,13 @@
         <v>4244</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3345,13 +3351,13 @@
         <v>1026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3360,13 +3366,13 @@
         <v>5270</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3387,13 @@
         <v>29647</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -3396,13 +3402,13 @@
         <v>10122</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -3411,13 +3417,13 @@
         <v>39769</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3479,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3485,13 +3491,13 @@
         <v>8896</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3500,13 +3506,13 @@
         <v>4982</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3515,13 +3521,13 @@
         <v>13878</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3542,13 @@
         <v>5960</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -3551,13 +3557,13 @@
         <v>6177</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -3566,13 +3572,13 @@
         <v>12137</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3593,13 @@
         <v>2104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3605,10 +3611,10 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3617,13 +3623,13 @@
         <v>2104</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3644,13 @@
         <v>11984</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3653,13 +3659,13 @@
         <v>4984</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3668,13 +3674,13 @@
         <v>16968</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3748,13 @@
         <v>31434</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3757,13 +3763,13 @@
         <v>23328</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -3772,13 +3778,13 @@
         <v>54762</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3799,13 @@
         <v>59960</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -3808,7 +3814,7 @@
         <v>46698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>265</v>
@@ -3895,7 +3901,7 @@
         <v>58240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>279</v>
@@ -3931,7 +3937,7 @@
         <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3993,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4006,7 +4012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19886008-2327-4243-89E2-871870FC5D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB928319-D28E-475F-9A27-355730F512D6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4029,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4130,13 +4136,13 @@
         <v>1245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4145,13 +4151,13 @@
         <v>639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4160,13 +4166,13 @@
         <v>1885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>46978</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -4196,13 +4202,13 @@
         <v>51071</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4211,7 +4217,7 @@
         <v>98049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>301</v>
@@ -4408,7 +4414,7 @@
         <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4417,13 +4423,13 @@
         <v>2785</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4444,7 @@
         <v>68414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>329</v>
@@ -4468,13 +4474,13 @@
         <v>123657</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4495,13 @@
         <v>165703</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -4504,13 +4510,13 @@
         <v>157631</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -4519,13 +4525,13 @@
         <v>323334</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4546,7 @@
         <v>97122</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>346</v>
@@ -4632,7 +4638,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4647,7 +4653,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>352</v>
@@ -4662,7 +4668,7 @@
         <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>353</v>
@@ -4677,7 +4683,7 @@
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>354</v>
@@ -4746,13 +4752,13 @@
         <v>71817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -4761,13 +4767,13 @@
         <v>64851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -4776,13 +4782,13 @@
         <v>136668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4803,13 @@
         <v>14236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -4812,13 +4818,13 @@
         <v>6017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4827,13 +4833,13 @@
         <v>20253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4907,13 @@
         <v>3575</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4916,13 +4922,13 @@
         <v>1095</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4931,13 +4937,13 @@
         <v>4670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>159574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>226</v>
@@ -4967,13 +4973,13 @@
         <v>127973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>436</v>
@@ -4982,13 +4988,13 @@
         <v>287547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5009,13 @@
         <v>324265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
         <v>568</v>
@@ -5018,13 +5024,13 @@
         <v>337335</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M21" s="7">
         <v>974</v>
@@ -5033,13 +5039,13 @@
         <v>661600</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5060,13 @@
         <v>126895</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -5069,13 +5075,13 @@
         <v>60519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -5087,10 +5093,10 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5152,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
